--- a/coordinates_sample/211广平国/211广平国.xlsx
+++ b/coordinates_sample/211广平国/211广平国.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/211广平国/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424E8C0-5F8A-4045-9A5D-DE19380D0171}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="211广平国" sheetId="1" r:id="rId1"/>
     <sheet name="null" sheetId="2" r:id="rId2"/>
     <sheet name="211" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -552,19 +553,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:I14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -622,7 +623,7 @@
         <v>87159</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -651,7 +652,7 @@
         <v>87489</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -680,7 +681,7 @@
         <v>87490</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -709,7 +710,7 @@
         <v>87491</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -738,7 +739,7 @@
         <v>87494</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -767,7 +768,7 @@
         <v>87495</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -796,7 +797,7 @@
         <v>87177</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -825,7 +826,7 @@
         <v>87499</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -854,7 +855,7 @@
         <v>85179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -883,7 +884,7 @@
         <v>87501</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -912,7 +913,7 @@
         <v>87506</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -941,7 +942,7 @@
         <v>87510</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -977,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1067,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
